--- a/Словарь_перерывов.xlsx
+++ b/Словарь_перерывов.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Python\Python for BI\Перерывы\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Python\Git\pereriv\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AB1AAF3A-3BFD-4F04-8AB4-0C38784AA7E3}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{66CF7573-820C-4F05-ABF1-1AD7BB162408}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7545" activeTab="1" xr2:uid="{EEDA1E56-072E-4564-8F19-4292332D1DF4}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20496" windowHeight="7548" activeTab="1" xr2:uid="{EEDA1E56-072E-4564-8F19-4292332D1DF4}"/>
   </bookViews>
   <sheets>
     <sheet name="Основные" sheetId="1" r:id="rId1"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="12">
   <si>
     <t>Наименование, указываеоме в строке 8 "Положенный перерыв"</t>
   </si>
@@ -59,6 +59,9 @@
   </si>
   <si>
     <t>75_2</t>
+  </si>
+  <si>
+    <t>45</t>
   </si>
 </sst>
 </file>
@@ -597,16 +600,16 @@
   <dimension ref="A1:F20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C15" sqref="C15"/>
+      <selection sqref="A1:F12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="34.85546875" style="5" customWidth="1"/>
-    <col min="2" max="6" width="15.28515625" style="10" customWidth="1"/>
+    <col min="1" max="1" width="34.88671875" style="5" customWidth="1"/>
+    <col min="2" max="6" width="15.33203125" style="10" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" s="1" customFormat="1" ht="60" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" s="1" customFormat="1" ht="60" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -626,7 +629,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A2" s="3">
         <v>15</v>
       </c>
@@ -638,7 +641,7 @@
       <c r="E2" s="8"/>
       <c r="F2" s="8"/>
     </row>
-    <row r="3" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A3" s="3">
         <v>20</v>
       </c>
@@ -652,7 +655,7 @@
       <c r="E3" s="8"/>
       <c r="F3" s="8"/>
     </row>
-    <row r="4" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A4" s="3">
         <v>30</v>
       </c>
@@ -666,7 +669,7 @@
       <c r="E4" s="8"/>
       <c r="F4" s="8"/>
     </row>
-    <row r="5" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A5" s="3">
         <v>55</v>
       </c>
@@ -682,7 +685,7 @@
       <c r="E5" s="8"/>
       <c r="F5" s="8"/>
     </row>
-    <row r="6" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A6" s="3">
         <v>60</v>
       </c>
@@ -698,7 +701,7 @@
       <c r="E6" s="8"/>
       <c r="F6" s="8"/>
     </row>
-    <row r="7" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A7" s="3">
         <v>65</v>
       </c>
@@ -716,7 +719,7 @@
       </c>
       <c r="F7" s="8"/>
     </row>
-    <row r="8" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A8" s="3">
         <v>70</v>
       </c>
@@ -734,7 +737,7 @@
       </c>
       <c r="F8" s="8"/>
     </row>
-    <row r="9" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A9" s="3">
         <v>75</v>
       </c>
@@ -752,7 +755,7 @@
       </c>
       <c r="F9" s="8"/>
     </row>
-    <row r="10" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A10" s="3" t="s">
         <v>5</v>
       </c>
@@ -772,7 +775,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="11" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A11" s="3" t="s">
         <v>6</v>
       </c>
@@ -792,7 +795,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="12" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A12" s="3" t="s">
         <v>9</v>
       </c>
@@ -804,28 +807,28 @@
       <c r="E12" s="8"/>
       <c r="F12" s="8"/>
     </row>
-    <row r="13" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A13" s="4"/>
     </row>
-    <row r="14" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A14" s="4"/>
     </row>
-    <row r="15" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A15" s="4"/>
     </row>
-    <row r="16" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A16" s="4"/>
     </row>
-    <row r="17" spans="1:1" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:1" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A17" s="4"/>
     </row>
-    <row r="18" spans="1:1" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:1" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A18" s="4"/>
     </row>
-    <row r="19" spans="1:1" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:1" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A19" s="4"/>
     </row>
-    <row r="20" spans="1:1" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:1" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A20" s="4"/>
     </row>
   </sheetData>
@@ -843,16 +846,16 @@
   <dimension ref="A1:F11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2:E2"/>
+      <selection activeCell="D14" sqref="D14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="20" style="6" customWidth="1"/>
     <col min="2" max="6" width="20" style="9" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="75" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" ht="72" x14ac:dyDescent="0.3">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -872,7 +875,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A2" s="3" t="s">
         <v>8</v>
       </c>
@@ -890,7 +893,7 @@
       </c>
       <c r="F2" s="8"/>
     </row>
-    <row r="3" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A3" s="3" t="s">
         <v>10</v>
       </c>
@@ -908,15 +911,23 @@
       </c>
       <c r="F3" s="8"/>
     </row>
-    <row r="4" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A4" s="3"/>
-      <c r="B4" s="8"/>
-      <c r="C4" s="8"/>
-      <c r="D4" s="8"/>
+    <row r="4" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A4" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="B4" s="8">
+        <v>15</v>
+      </c>
+      <c r="C4" s="8">
+        <v>15</v>
+      </c>
+      <c r="D4" s="8">
+        <v>15</v>
+      </c>
       <c r="E4" s="8"/>
       <c r="F4" s="8"/>
     </row>
-    <row r="5" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A5" s="3"/>
       <c r="B5" s="8"/>
       <c r="C5" s="8"/>
@@ -924,7 +935,7 @@
       <c r="E5" s="8"/>
       <c r="F5" s="8"/>
     </row>
-    <row r="6" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A6" s="3"/>
       <c r="B6" s="8"/>
       <c r="C6" s="8"/>
@@ -932,7 +943,7 @@
       <c r="E6" s="8"/>
       <c r="F6" s="8"/>
     </row>
-    <row r="7" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A7" s="3"/>
       <c r="B7" s="8"/>
       <c r="C7" s="8"/>
@@ -940,7 +951,7 @@
       <c r="E7" s="8"/>
       <c r="F7" s="8"/>
     </row>
-    <row r="8" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A8" s="3"/>
       <c r="B8" s="8"/>
       <c r="C8" s="8"/>
@@ -948,7 +959,7 @@
       <c r="E8" s="8"/>
       <c r="F8" s="8"/>
     </row>
-    <row r="9" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A9" s="3"/>
       <c r="B9" s="8"/>
       <c r="C9" s="8"/>
@@ -956,7 +967,7 @@
       <c r="E9" s="8"/>
       <c r="F9" s="8"/>
     </row>
-    <row r="10" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A10" s="3"/>
       <c r="B10" s="8"/>
       <c r="C10" s="8"/>
@@ -964,7 +975,7 @@
       <c r="E10" s="8"/>
       <c r="F10" s="8"/>
     </row>
-    <row r="11" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A11" s="3"/>
       <c r="B11" s="8"/>
       <c r="C11" s="8"/>

--- a/Словарь_перерывов.xlsx
+++ b/Словарь_перерывов.xlsx
@@ -1,22 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20827"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20827"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Python\Git\pereriv\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Python\Git\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{66CF7573-820C-4F05-ABF1-1AD7BB162408}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{749D7A71-8469-4716-A5AE-70AC45D29418}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20496" windowHeight="7548" activeTab="1" xr2:uid="{EEDA1E56-072E-4564-8F19-4292332D1DF4}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="17256" windowHeight="7848" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Основные" sheetId="1" r:id="rId1"/>
     <sheet name="Собственные" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="179021"/>
+  <calcPr calcId="162913"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="13">
   <si>
     <t>Наименование, указываеоме в строке 8 "Положенный перерыв"</t>
   </si>
@@ -62,13 +62,16 @@
   </si>
   <si>
     <t>45</t>
+  </si>
+  <si>
+    <t>90</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -95,6 +98,13 @@
       <charset val="204"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -116,7 +126,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -148,6 +158,10 @@
     <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection locked="0"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
@@ -189,8 +203,6 @@
         <sz val="12"/>
         <color theme="1"/>
         <name val="Calibri"/>
-        <family val="2"/>
-        <charset val="204"/>
         <scheme val="minor"/>
       </font>
       <numFmt numFmtId="30" formatCode="@"/>
@@ -241,8 +253,6 @@
         <sz val="12"/>
         <color theme="1"/>
         <name val="Calibri"/>
-        <family val="2"/>
-        <charset val="204"/>
         <scheme val="minor"/>
       </font>
       <numFmt numFmtId="30" formatCode="@"/>
@@ -271,30 +281,30 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{15672EC0-0728-4B74-89F4-BA8736F7B537}" name="Таблица2" displayName="Таблица2" ref="A1:F12" totalsRowShown="0" headerRowDxfId="15" dataDxfId="14">
-  <autoFilter ref="A1:F12" xr:uid="{59C317D5-703B-46E5-80D8-376AC32E2B01}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Таблица2" displayName="Таблица2" ref="A1:F12" totalsRowShown="0" headerRowDxfId="15" dataDxfId="14">
+  <autoFilter ref="A1:F12" xr:uid="{00000000-0009-0000-0100-000002000000}"/>
   <tableColumns count="6">
-    <tableColumn id="1" xr3:uid="{7F009E7E-A622-4B3C-A456-0020298B64EB}" name="Наименование, указываеоме в строке 8 &quot;Положенный перерыв&quot;" dataDxfId="13"/>
-    <tableColumn id="2" xr3:uid="{878A917B-5507-4C39-924D-252CEB66B407}" name="Перерыв 1 (кратный 5 мин)" dataDxfId="12"/>
-    <tableColumn id="3" xr3:uid="{0E4145A6-0144-461A-B51D-D5962F122C2C}" name="Перерыв 2 (кратный 5 мин)" dataDxfId="11"/>
-    <tableColumn id="4" xr3:uid="{5452B559-DBBC-47C7-B4A0-D45631539EEC}" name="Перерыв 3 (кратный 5 мин)" dataDxfId="10"/>
-    <tableColumn id="5" xr3:uid="{E125B6EA-C571-4023-B8F4-E36843CC7EC2}" name="Перерыв 3 (кратный 5 мин)2" dataDxfId="9"/>
-    <tableColumn id="6" xr3:uid="{AD8C688A-3FFB-469A-870C-625986B4C70D}" name="Перерыв 5 (кратный 5 мин)" dataDxfId="8"/>
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="Наименование, указываеоме в строке 8 &quot;Положенный перерыв&quot;" dataDxfId="13"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="Перерыв 1 (кратный 5 мин)" dataDxfId="12"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0000-000003000000}" name="Перерыв 2 (кратный 5 мин)" dataDxfId="11"/>
+    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0000-000004000000}" name="Перерыв 3 (кратный 5 мин)" dataDxfId="10"/>
+    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0000-000005000000}" name="Перерыв 3 (кратный 5 мин)2" dataDxfId="9"/>
+    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0000-000006000000}" name="Перерыв 5 (кратный 5 мин)" dataDxfId="8"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{771ABDB7-BB04-479A-8098-DEA725AE68EA}" name="Таблица24" displayName="Таблица24" ref="A1:F11" totalsRowShown="0" headerRowDxfId="7" dataDxfId="6">
-  <autoFilter ref="A1:F11" xr:uid="{7279948D-ADAC-42F8-AEA5-33DD98C38D06}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{00000000-000C-0000-FFFF-FFFF01000000}" name="Таблица24" displayName="Таблица24" ref="A1:F11" totalsRowShown="0" headerRowDxfId="7" dataDxfId="6">
+  <autoFilter ref="A1:F11" xr:uid="{00000000-0009-0000-0100-000003000000}"/>
   <tableColumns count="6">
-    <tableColumn id="1" xr3:uid="{2388490B-84A2-45C8-A90A-4D76FA3991E0}" name="Наименование, указываеоме в строке 8 &quot;Положенный перерыв&quot;" dataDxfId="5"/>
-    <tableColumn id="2" xr3:uid="{27BC26BF-E770-4C00-B9DF-7C1D340FC96B}" name="Перерыв 1 (кратный 5 мин)" dataDxfId="4"/>
-    <tableColumn id="3" xr3:uid="{D1E5C729-38D6-475F-B700-07632144168D}" name="Перерыв 2 (кратный 5 мин)" dataDxfId="3"/>
-    <tableColumn id="4" xr3:uid="{545E3AA9-1A07-457B-89CC-E7A5AFF2890F}" name="Перерыв 3 (кратный 5 мин)" dataDxfId="2"/>
-    <tableColumn id="5" xr3:uid="{412C6B33-70BB-4348-A8E6-FADDB6FDE832}" name="Перерыв 3 (кратный 5 мин)2" dataDxfId="1"/>
-    <tableColumn id="6" xr3:uid="{4619D0F1-0198-4941-9961-E8774006A951}" name="Перерыв 5 (кратный 5 мин)" dataDxfId="0"/>
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0100-000001000000}" name="Наименование, указываеоме в строке 8 &quot;Положенный перерыв&quot;" dataDxfId="5"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0100-000002000000}" name="Перерыв 1 (кратный 5 мин)" dataDxfId="4"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0100-000003000000}" name="Перерыв 2 (кратный 5 мин)" dataDxfId="3"/>
+    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0100-000004000000}" name="Перерыв 3 (кратный 5 мин)" dataDxfId="2"/>
+    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0100-000005000000}" name="Перерыв 3 (кратный 5 мин)2" dataDxfId="1"/>
+    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0100-000006000000}" name="Перерыв 5 (кратный 5 мин)" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -596,11 +606,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A646472C-BD81-4437-986C-DBCD015C7742}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:F20"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:F12"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D17" sqref="D17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -660,12 +670,14 @@
         <v>30</v>
       </c>
       <c r="B4" s="8">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="C4" s="8">
-        <v>15</v>
-      </c>
-      <c r="D4" s="8"/>
+        <v>10</v>
+      </c>
+      <c r="D4" s="8">
+        <v>10</v>
+      </c>
       <c r="E4" s="8"/>
       <c r="F4" s="8"/>
     </row>
@@ -674,15 +686,17 @@
         <v>55</v>
       </c>
       <c r="B5" s="8">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="C5" s="8">
-        <v>30</v>
+        <v>10</v>
       </c>
       <c r="D5" s="8">
-        <v>10</v>
-      </c>
-      <c r="E5" s="8"/>
+        <v>20</v>
+      </c>
+      <c r="E5" s="8">
+        <v>15</v>
+      </c>
       <c r="F5" s="8"/>
     </row>
     <row r="6" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
@@ -690,15 +704,17 @@
         <v>60</v>
       </c>
       <c r="B6" s="8">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="C6" s="8">
-        <v>30</v>
+        <v>10</v>
       </c>
       <c r="D6" s="8">
-        <v>15</v>
-      </c>
-      <c r="E6" s="8"/>
+        <v>25</v>
+      </c>
+      <c r="E6" s="8">
+        <v>15</v>
+      </c>
       <c r="F6" s="8"/>
     </row>
     <row r="7" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
@@ -712,12 +728,14 @@
         <v>10</v>
       </c>
       <c r="D7" s="8">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="E7" s="8">
-        <v>15</v>
-      </c>
-      <c r="F7" s="8"/>
+        <v>10</v>
+      </c>
+      <c r="F7" s="8">
+        <v>10</v>
+      </c>
     </row>
     <row r="8" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A8" s="3">
@@ -727,25 +745,27 @@
         <v>10</v>
       </c>
       <c r="C8" s="8">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="D8" s="8">
         <v>30</v>
       </c>
       <c r="E8" s="8">
-        <v>15</v>
-      </c>
-      <c r="F8" s="8"/>
+        <v>10</v>
+      </c>
+      <c r="F8" s="8">
+        <v>10</v>
+      </c>
     </row>
     <row r="9" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A9" s="3">
         <v>75</v>
       </c>
       <c r="B9" s="8">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="C9" s="8">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="D9" s="8">
         <v>30</v>
@@ -753,7 +773,9 @@
       <c r="E9" s="8">
         <v>15</v>
       </c>
-      <c r="F9" s="8"/>
+      <c r="F9" s="8">
+        <v>10</v>
+      </c>
     </row>
     <row r="10" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A10" s="3" t="s">
@@ -763,10 +785,10 @@
         <v>10</v>
       </c>
       <c r="C10" s="8">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="D10" s="8">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="E10" s="8">
         <v>15</v>
@@ -842,11 +864,11 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BAB83363-6809-4D86-BB05-C0D56AD009B9}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:F11"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D14" sqref="D14"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F10" sqref="F10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -916,27 +938,41 @@
         <v>11</v>
       </c>
       <c r="B4" s="8">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="C4" s="8">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="D4" s="8">
-        <v>15</v>
-      </c>
-      <c r="E4" s="8"/>
+        <v>10</v>
+      </c>
+      <c r="E4" s="8">
+        <v>15</v>
+      </c>
       <c r="F4" s="8"/>
     </row>
     <row r="5" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A5" s="3"/>
-      <c r="B5" s="8"/>
-      <c r="C5" s="8"/>
-      <c r="D5" s="8"/>
-      <c r="E5" s="8"/>
-      <c r="F5" s="8"/>
+      <c r="A5" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="B5" s="8">
+        <v>10</v>
+      </c>
+      <c r="C5" s="8">
+        <v>10</v>
+      </c>
+      <c r="D5" s="8">
+        <v>20</v>
+      </c>
+      <c r="E5" s="8">
+        <v>30</v>
+      </c>
+      <c r="F5" s="8">
+        <v>20</v>
+      </c>
     </row>
     <row r="6" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A6" s="3"/>
+      <c r="A6" s="11"/>
       <c r="B6" s="8"/>
       <c r="C6" s="8"/>
       <c r="D6" s="8"/>

--- a/Словарь_перерывов.xlsx
+++ b/Словарь_перерывов.xlsx
@@ -1,22 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20827"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20827"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Python\Git\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Python\Git\pereriv\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{749D7A71-8469-4716-A5AE-70AC45D29418}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{66CF7573-820C-4F05-ABF1-1AD7BB162408}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="17256" windowHeight="7848" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20496" windowHeight="7548" activeTab="1" xr2:uid="{EEDA1E56-072E-4564-8F19-4292332D1DF4}"/>
   </bookViews>
   <sheets>
     <sheet name="Основные" sheetId="1" r:id="rId1"/>
     <sheet name="Собственные" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="179021"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="12">
   <si>
     <t>Наименование, указываеоме в строке 8 "Положенный перерыв"</t>
   </si>
@@ -62,16 +62,13 @@
   </si>
   <si>
     <t>45</t>
-  </si>
-  <si>
-    <t>90</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -98,13 +95,6 @@
       <charset val="204"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <b/>
-      <sz val="12"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -126,7 +116,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -158,10 +148,6 @@
     <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-      <protection locked="0"/>
-    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
@@ -203,6 +189,8 @@
         <sz val="12"/>
         <color theme="1"/>
         <name val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
         <scheme val="minor"/>
       </font>
       <numFmt numFmtId="30" formatCode="@"/>
@@ -253,6 +241,8 @@
         <sz val="12"/>
         <color theme="1"/>
         <name val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
         <scheme val="minor"/>
       </font>
       <numFmt numFmtId="30" formatCode="@"/>
@@ -281,30 +271,30 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Таблица2" displayName="Таблица2" ref="A1:F12" totalsRowShown="0" headerRowDxfId="15" dataDxfId="14">
-  <autoFilter ref="A1:F12" xr:uid="{00000000-0009-0000-0100-000002000000}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{15672EC0-0728-4B74-89F4-BA8736F7B537}" name="Таблица2" displayName="Таблица2" ref="A1:F12" totalsRowShown="0" headerRowDxfId="15" dataDxfId="14">
+  <autoFilter ref="A1:F12" xr:uid="{59C317D5-703B-46E5-80D8-376AC32E2B01}"/>
   <tableColumns count="6">
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="Наименование, указываеоме в строке 8 &quot;Положенный перерыв&quot;" dataDxfId="13"/>
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="Перерыв 1 (кратный 5 мин)" dataDxfId="12"/>
-    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0000-000003000000}" name="Перерыв 2 (кратный 5 мин)" dataDxfId="11"/>
-    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0000-000004000000}" name="Перерыв 3 (кратный 5 мин)" dataDxfId="10"/>
-    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0000-000005000000}" name="Перерыв 3 (кратный 5 мин)2" dataDxfId="9"/>
-    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0000-000006000000}" name="Перерыв 5 (кратный 5 мин)" dataDxfId="8"/>
+    <tableColumn id="1" xr3:uid="{7F009E7E-A622-4B3C-A456-0020298B64EB}" name="Наименование, указываеоме в строке 8 &quot;Положенный перерыв&quot;" dataDxfId="13"/>
+    <tableColumn id="2" xr3:uid="{878A917B-5507-4C39-924D-252CEB66B407}" name="Перерыв 1 (кратный 5 мин)" dataDxfId="12"/>
+    <tableColumn id="3" xr3:uid="{0E4145A6-0144-461A-B51D-D5962F122C2C}" name="Перерыв 2 (кратный 5 мин)" dataDxfId="11"/>
+    <tableColumn id="4" xr3:uid="{5452B559-DBBC-47C7-B4A0-D45631539EEC}" name="Перерыв 3 (кратный 5 мин)" dataDxfId="10"/>
+    <tableColumn id="5" xr3:uid="{E125B6EA-C571-4023-B8F4-E36843CC7EC2}" name="Перерыв 3 (кратный 5 мин)2" dataDxfId="9"/>
+    <tableColumn id="6" xr3:uid="{AD8C688A-3FFB-469A-870C-625986B4C70D}" name="Перерыв 5 (кратный 5 мин)" dataDxfId="8"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{00000000-000C-0000-FFFF-FFFF01000000}" name="Таблица24" displayName="Таблица24" ref="A1:F11" totalsRowShown="0" headerRowDxfId="7" dataDxfId="6">
-  <autoFilter ref="A1:F11" xr:uid="{00000000-0009-0000-0100-000003000000}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{771ABDB7-BB04-479A-8098-DEA725AE68EA}" name="Таблица24" displayName="Таблица24" ref="A1:F11" totalsRowShown="0" headerRowDxfId="7" dataDxfId="6">
+  <autoFilter ref="A1:F11" xr:uid="{7279948D-ADAC-42F8-AEA5-33DD98C38D06}"/>
   <tableColumns count="6">
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0100-000001000000}" name="Наименование, указываеоме в строке 8 &quot;Положенный перерыв&quot;" dataDxfId="5"/>
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0100-000002000000}" name="Перерыв 1 (кратный 5 мин)" dataDxfId="4"/>
-    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0100-000003000000}" name="Перерыв 2 (кратный 5 мин)" dataDxfId="3"/>
-    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0100-000004000000}" name="Перерыв 3 (кратный 5 мин)" dataDxfId="2"/>
-    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0100-000005000000}" name="Перерыв 3 (кратный 5 мин)2" dataDxfId="1"/>
-    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0100-000006000000}" name="Перерыв 5 (кратный 5 мин)" dataDxfId="0"/>
+    <tableColumn id="1" xr3:uid="{2388490B-84A2-45C8-A90A-4D76FA3991E0}" name="Наименование, указываеоме в строке 8 &quot;Положенный перерыв&quot;" dataDxfId="5"/>
+    <tableColumn id="2" xr3:uid="{27BC26BF-E770-4C00-B9DF-7C1D340FC96B}" name="Перерыв 1 (кратный 5 мин)" dataDxfId="4"/>
+    <tableColumn id="3" xr3:uid="{D1E5C729-38D6-475F-B700-07632144168D}" name="Перерыв 2 (кратный 5 мин)" dataDxfId="3"/>
+    <tableColumn id="4" xr3:uid="{545E3AA9-1A07-457B-89CC-E7A5AFF2890F}" name="Перерыв 3 (кратный 5 мин)" dataDxfId="2"/>
+    <tableColumn id="5" xr3:uid="{412C6B33-70BB-4348-A8E6-FADDB6FDE832}" name="Перерыв 3 (кратный 5 мин)2" dataDxfId="1"/>
+    <tableColumn id="6" xr3:uid="{4619D0F1-0198-4941-9961-E8774006A951}" name="Перерыв 5 (кратный 5 мин)" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -606,11 +596,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A646472C-BD81-4437-986C-DBCD015C7742}">
   <dimension ref="A1:F20"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D17" sqref="D17"/>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:F12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -670,14 +660,12 @@
         <v>30</v>
       </c>
       <c r="B4" s="8">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="C4" s="8">
-        <v>10</v>
-      </c>
-      <c r="D4" s="8">
-        <v>10</v>
-      </c>
+        <v>15</v>
+      </c>
+      <c r="D4" s="8"/>
       <c r="E4" s="8"/>
       <c r="F4" s="8"/>
     </row>
@@ -686,17 +674,15 @@
         <v>55</v>
       </c>
       <c r="B5" s="8">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="C5" s="8">
-        <v>10</v>
+        <v>30</v>
       </c>
       <c r="D5" s="8">
-        <v>20</v>
-      </c>
-      <c r="E5" s="8">
-        <v>15</v>
-      </c>
+        <v>10</v>
+      </c>
+      <c r="E5" s="8"/>
       <c r="F5" s="8"/>
     </row>
     <row r="6" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
@@ -704,17 +690,15 @@
         <v>60</v>
       </c>
       <c r="B6" s="8">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="C6" s="8">
-        <v>10</v>
+        <v>30</v>
       </c>
       <c r="D6" s="8">
-        <v>25</v>
-      </c>
-      <c r="E6" s="8">
-        <v>15</v>
-      </c>
+        <v>15</v>
+      </c>
+      <c r="E6" s="8"/>
       <c r="F6" s="8"/>
     </row>
     <row r="7" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
@@ -728,14 +712,12 @@
         <v>10</v>
       </c>
       <c r="D7" s="8">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="E7" s="8">
-        <v>10</v>
-      </c>
-      <c r="F7" s="8">
-        <v>10</v>
-      </c>
+        <v>15</v>
+      </c>
+      <c r="F7" s="8"/>
     </row>
     <row r="8" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A8" s="3">
@@ -745,27 +727,25 @@
         <v>10</v>
       </c>
       <c r="C8" s="8">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="D8" s="8">
         <v>30</v>
       </c>
       <c r="E8" s="8">
-        <v>10</v>
-      </c>
-      <c r="F8" s="8">
-        <v>10</v>
-      </c>
+        <v>15</v>
+      </c>
+      <c r="F8" s="8"/>
     </row>
     <row r="9" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A9" s="3">
         <v>75</v>
       </c>
       <c r="B9" s="8">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="C9" s="8">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="D9" s="8">
         <v>30</v>
@@ -773,9 +753,7 @@
       <c r="E9" s="8">
         <v>15</v>
       </c>
-      <c r="F9" s="8">
-        <v>10</v>
-      </c>
+      <c r="F9" s="8"/>
     </row>
     <row r="10" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A10" s="3" t="s">
@@ -785,10 +763,10 @@
         <v>10</v>
       </c>
       <c r="C10" s="8">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="D10" s="8">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="E10" s="8">
         <v>15</v>
@@ -864,11 +842,11 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BAB83363-6809-4D86-BB05-C0D56AD009B9}">
   <dimension ref="A1:F11"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F10" sqref="F10"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D14" sqref="D14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -938,41 +916,27 @@
         <v>11</v>
       </c>
       <c r="B4" s="8">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="C4" s="8">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="D4" s="8">
-        <v>10</v>
-      </c>
-      <c r="E4" s="8">
-        <v>15</v>
-      </c>
+        <v>15</v>
+      </c>
+      <c r="E4" s="8"/>
       <c r="F4" s="8"/>
     </row>
     <row r="5" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A5" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="B5" s="8">
-        <v>10</v>
-      </c>
-      <c r="C5" s="8">
-        <v>10</v>
-      </c>
-      <c r="D5" s="8">
-        <v>20</v>
-      </c>
-      <c r="E5" s="8">
-        <v>30</v>
-      </c>
-      <c r="F5" s="8">
-        <v>20</v>
-      </c>
+      <c r="A5" s="3"/>
+      <c r="B5" s="8"/>
+      <c r="C5" s="8"/>
+      <c r="D5" s="8"/>
+      <c r="E5" s="8"/>
+      <c r="F5" s="8"/>
     </row>
     <row r="6" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A6" s="11"/>
+      <c r="A6" s="3"/>
       <c r="B6" s="8"/>
       <c r="C6" s="8"/>
       <c r="D6" s="8"/>

--- a/Словарь_перерывов.xlsx
+++ b/Словарь_перерывов.xlsx
@@ -1,22 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20827"/>
-  <workbookPr defaultThemeVersion="166925"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Python\Git\pereriv\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\nuriya.shakirova\Desktop\ПерерывыКЦ.2022.05.18\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{66CF7573-820C-4F05-ABF1-1AD7BB162408}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20496" windowHeight="7548" activeTab="1" xr2:uid="{EEDA1E56-072E-4564-8F19-4292332D1DF4}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7545"/>
   </bookViews>
   <sheets>
     <sheet name="Основные" sheetId="1" r:id="rId1"/>
     <sheet name="Собственные" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="179021"/>
+  <calcPr calcId="162913"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -26,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="11">
   <si>
     <t>Наименование, указываеоме в строке 8 "Положенный перерыв"</t>
   </si>
@@ -59,15 +58,12 @@
   </si>
   <si>
     <t>75_2</t>
-  </si>
-  <si>
-    <t>45</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -189,8 +185,6 @@
         <sz val="12"/>
         <color theme="1"/>
         <name val="Calibri"/>
-        <family val="2"/>
-        <charset val="204"/>
         <scheme val="minor"/>
       </font>
       <numFmt numFmtId="30" formatCode="@"/>
@@ -241,8 +235,6 @@
         <sz val="12"/>
         <color theme="1"/>
         <name val="Calibri"/>
-        <family val="2"/>
-        <charset val="204"/>
         <scheme val="minor"/>
       </font>
       <numFmt numFmtId="30" formatCode="@"/>
@@ -271,30 +263,30 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{15672EC0-0728-4B74-89F4-BA8736F7B537}" name="Таблица2" displayName="Таблица2" ref="A1:F12" totalsRowShown="0" headerRowDxfId="15" dataDxfId="14">
-  <autoFilter ref="A1:F12" xr:uid="{59C317D5-703B-46E5-80D8-376AC32E2B01}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="Таблица2" displayName="Таблица2" ref="A1:F12" totalsRowShown="0" headerRowDxfId="15" dataDxfId="14">
+  <autoFilter ref="A1:F12"/>
   <tableColumns count="6">
-    <tableColumn id="1" xr3:uid="{7F009E7E-A622-4B3C-A456-0020298B64EB}" name="Наименование, указываеоме в строке 8 &quot;Положенный перерыв&quot;" dataDxfId="13"/>
-    <tableColumn id="2" xr3:uid="{878A917B-5507-4C39-924D-252CEB66B407}" name="Перерыв 1 (кратный 5 мин)" dataDxfId="12"/>
-    <tableColumn id="3" xr3:uid="{0E4145A6-0144-461A-B51D-D5962F122C2C}" name="Перерыв 2 (кратный 5 мин)" dataDxfId="11"/>
-    <tableColumn id="4" xr3:uid="{5452B559-DBBC-47C7-B4A0-D45631539EEC}" name="Перерыв 3 (кратный 5 мин)" dataDxfId="10"/>
-    <tableColumn id="5" xr3:uid="{E125B6EA-C571-4023-B8F4-E36843CC7EC2}" name="Перерыв 3 (кратный 5 мин)2" dataDxfId="9"/>
-    <tableColumn id="6" xr3:uid="{AD8C688A-3FFB-469A-870C-625986B4C70D}" name="Перерыв 5 (кратный 5 мин)" dataDxfId="8"/>
+    <tableColumn id="1" name="Наименование, указываеоме в строке 8 &quot;Положенный перерыв&quot;" dataDxfId="13"/>
+    <tableColumn id="2" name="Перерыв 1 (кратный 5 мин)" dataDxfId="12"/>
+    <tableColumn id="3" name="Перерыв 2 (кратный 5 мин)" dataDxfId="11"/>
+    <tableColumn id="4" name="Перерыв 3 (кратный 5 мин)" dataDxfId="10"/>
+    <tableColumn id="5" name="Перерыв 3 (кратный 5 мин)2" dataDxfId="9"/>
+    <tableColumn id="6" name="Перерыв 5 (кратный 5 мин)" dataDxfId="8"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{771ABDB7-BB04-479A-8098-DEA725AE68EA}" name="Таблица24" displayName="Таблица24" ref="A1:F11" totalsRowShown="0" headerRowDxfId="7" dataDxfId="6">
-  <autoFilter ref="A1:F11" xr:uid="{7279948D-ADAC-42F8-AEA5-33DD98C38D06}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="3" name="Таблица24" displayName="Таблица24" ref="A1:F11" totalsRowShown="0" headerRowDxfId="7" dataDxfId="6">
+  <autoFilter ref="A1:F11"/>
   <tableColumns count="6">
-    <tableColumn id="1" xr3:uid="{2388490B-84A2-45C8-A90A-4D76FA3991E0}" name="Наименование, указываеоме в строке 8 &quot;Положенный перерыв&quot;" dataDxfId="5"/>
-    <tableColumn id="2" xr3:uid="{27BC26BF-E770-4C00-B9DF-7C1D340FC96B}" name="Перерыв 1 (кратный 5 мин)" dataDxfId="4"/>
-    <tableColumn id="3" xr3:uid="{D1E5C729-38D6-475F-B700-07632144168D}" name="Перерыв 2 (кратный 5 мин)" dataDxfId="3"/>
-    <tableColumn id="4" xr3:uid="{545E3AA9-1A07-457B-89CC-E7A5AFF2890F}" name="Перерыв 3 (кратный 5 мин)" dataDxfId="2"/>
-    <tableColumn id="5" xr3:uid="{412C6B33-70BB-4348-A8E6-FADDB6FDE832}" name="Перерыв 3 (кратный 5 мин)2" dataDxfId="1"/>
-    <tableColumn id="6" xr3:uid="{4619D0F1-0198-4941-9961-E8774006A951}" name="Перерыв 5 (кратный 5 мин)" dataDxfId="0"/>
+    <tableColumn id="1" name="Наименование, указываеоме в строке 8 &quot;Положенный перерыв&quot;" dataDxfId="5"/>
+    <tableColumn id="2" name="Перерыв 1 (кратный 5 мин)" dataDxfId="4"/>
+    <tableColumn id="3" name="Перерыв 2 (кратный 5 мин)" dataDxfId="3"/>
+    <tableColumn id="4" name="Перерыв 3 (кратный 5 мин)" dataDxfId="2"/>
+    <tableColumn id="5" name="Перерыв 3 (кратный 5 мин)2" dataDxfId="1"/>
+    <tableColumn id="6" name="Перерыв 5 (кратный 5 мин)" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -596,20 +588,20 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A646472C-BD81-4437-986C-DBCD015C7742}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F20"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:F12"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A17" sqref="A17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="34.88671875" style="5" customWidth="1"/>
-    <col min="2" max="6" width="15.33203125" style="10" customWidth="1"/>
+    <col min="1" max="1" width="34.85546875" style="5" customWidth="1"/>
+    <col min="2" max="6" width="15.28515625" style="10" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" s="1" customFormat="1" ht="60" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:6" s="1" customFormat="1" ht="60" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -629,7 +621,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A2" s="3">
         <v>15</v>
       </c>
@@ -641,7 +633,7 @@
       <c r="E2" s="8"/>
       <c r="F2" s="8"/>
     </row>
-    <row r="3" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A3" s="3">
         <v>20</v>
       </c>
@@ -655,7 +647,7 @@
       <c r="E3" s="8"/>
       <c r="F3" s="8"/>
     </row>
-    <row r="4" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A4" s="3">
         <v>30</v>
       </c>
@@ -669,7 +661,7 @@
       <c r="E4" s="8"/>
       <c r="F4" s="8"/>
     </row>
-    <row r="5" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A5" s="3">
         <v>55</v>
       </c>
@@ -685,7 +677,7 @@
       <c r="E5" s="8"/>
       <c r="F5" s="8"/>
     </row>
-    <row r="6" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A6" s="3">
         <v>60</v>
       </c>
@@ -701,7 +693,7 @@
       <c r="E6" s="8"/>
       <c r="F6" s="8"/>
     </row>
-    <row r="7" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A7" s="3">
         <v>65</v>
       </c>
@@ -719,7 +711,7 @@
       </c>
       <c r="F7" s="8"/>
     </row>
-    <row r="8" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A8" s="3">
         <v>70</v>
       </c>
@@ -737,7 +729,7 @@
       </c>
       <c r="F8" s="8"/>
     </row>
-    <row r="9" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A9" s="3">
         <v>75</v>
       </c>
@@ -755,7 +747,7 @@
       </c>
       <c r="F9" s="8"/>
     </row>
-    <row r="10" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A10" s="3" t="s">
         <v>5</v>
       </c>
@@ -775,7 +767,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="11" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A11" s="3" t="s">
         <v>6</v>
       </c>
@@ -795,7 +787,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="12" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A12" s="3" t="s">
         <v>9</v>
       </c>
@@ -807,28 +799,28 @@
       <c r="E12" s="8"/>
       <c r="F12" s="8"/>
     </row>
-    <row r="13" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A13" s="4"/>
     </row>
-    <row r="14" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A14" s="4"/>
     </row>
-    <row r="15" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A15" s="4"/>
     </row>
-    <row r="16" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A16" s="4"/>
     </row>
-    <row r="17" spans="1:1" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A17" s="4"/>
     </row>
-    <row r="18" spans="1:1" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A18" s="4"/>
     </row>
-    <row r="19" spans="1:1" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A19" s="4"/>
     </row>
-    <row r="20" spans="1:1" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A20" s="4"/>
     </row>
   </sheetData>
@@ -842,20 +834,20 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BAB83363-6809-4D86-BB05-C0D56AD009B9}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F11"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D14" sqref="D14"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A14" sqref="A14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="20" style="6" customWidth="1"/>
     <col min="2" max="6" width="20" style="9" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="72" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:6" ht="75" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -875,7 +867,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A2" s="3" t="s">
         <v>8</v>
       </c>
@@ -893,7 +885,7 @@
       </c>
       <c r="F2" s="8"/>
     </row>
-    <row r="3" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A3" s="3" t="s">
         <v>10</v>
       </c>
@@ -911,23 +903,15 @@
       </c>
       <c r="F3" s="8"/>
     </row>
-    <row r="4" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A4" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="B4" s="8">
-        <v>15</v>
-      </c>
-      <c r="C4" s="8">
-        <v>15</v>
-      </c>
-      <c r="D4" s="8">
-        <v>15</v>
-      </c>
+    <row r="4" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A4" s="3"/>
+      <c r="B4" s="8"/>
+      <c r="C4" s="8"/>
+      <c r="D4" s="8"/>
       <c r="E4" s="8"/>
       <c r="F4" s="8"/>
     </row>
-    <row r="5" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A5" s="3"/>
       <c r="B5" s="8"/>
       <c r="C5" s="8"/>
@@ -935,7 +919,7 @@
       <c r="E5" s="8"/>
       <c r="F5" s="8"/>
     </row>
-    <row r="6" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A6" s="3"/>
       <c r="B6" s="8"/>
       <c r="C6" s="8"/>
@@ -943,7 +927,7 @@
       <c r="E6" s="8"/>
       <c r="F6" s="8"/>
     </row>
-    <row r="7" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A7" s="3"/>
       <c r="B7" s="8"/>
       <c r="C7" s="8"/>
@@ -951,7 +935,7 @@
       <c r="E7" s="8"/>
       <c r="F7" s="8"/>
     </row>
-    <row r="8" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A8" s="3"/>
       <c r="B8" s="8"/>
       <c r="C8" s="8"/>
@@ -959,7 +943,7 @@
       <c r="E8" s="8"/>
       <c r="F8" s="8"/>
     </row>
-    <row r="9" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A9" s="3"/>
       <c r="B9" s="8"/>
       <c r="C9" s="8"/>
@@ -967,7 +951,7 @@
       <c r="E9" s="8"/>
       <c r="F9" s="8"/>
     </row>
-    <row r="10" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A10" s="3"/>
       <c r="B10" s="8"/>
       <c r="C10" s="8"/>
@@ -975,7 +959,7 @@
       <c r="E10" s="8"/>
       <c r="F10" s="8"/>
     </row>
-    <row r="11" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A11" s="3"/>
       <c r="B11" s="8"/>
       <c r="C11" s="8"/>
